--- a/Result_Queue_20.xlsx
+++ b/Result_Queue_20.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MG\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EECE_24\Embedded\Demo\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BEDD4C-00AD-4A01-83ED-31B67FE5CE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19635041-0F05-4BF7-9F5A-6DB939D4D12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{CC168A4B-B5B1-4701-A7B0-8B22AD08304F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>---------------</t>
   </si>
@@ -43,16 +43,40 @@
     <t>Average time</t>
   </si>
   <si>
-    <t>no of blocked messages</t>
+    <t>By using Queue with 20 cells</t>
   </si>
   <si>
-    <t>no of transmitted messages</t>
+    <t>Range</t>
   </si>
   <si>
-    <t>no of received messages</t>
+    <t>50 : 150</t>
   </si>
   <si>
-    <t>By using Queue with 20 cells</t>
+    <t>80 : 200</t>
+  </si>
+  <si>
+    <t>110 : 250</t>
+  </si>
+  <si>
+    <t>140 : 300</t>
+  </si>
+  <si>
+    <t>170 : 350</t>
+  </si>
+  <si>
+    <t>200 : 400</t>
+  </si>
+  <si>
+    <t>Transmitted and Blocked</t>
+  </si>
+  <si>
+    <t>Transmitted messages</t>
+  </si>
+  <si>
+    <t>Blocked messages</t>
+  </si>
+  <si>
+    <t>Received messages</t>
   </si>
 </sst>
 </file>
@@ -75,7 +99,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -90,7 +114,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -122,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -130,13 +160,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -190,8 +223,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Blocked messages vs. average sender time</a:t>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Blocked messages vs. Average Sender Time</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -236,11 +273,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
+              <c:f>Sheet1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>no of blocked messages</c:v>
+                  <c:v>Blocked messages</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -286,7 +323,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$7</c:f>
+              <c:f>Sheet1!$H$2:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -656,16 +693,13 @@
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>Transmitted messages vs. Average sender time</a:t>
+              <a:t>Transmitted messages vs. Average Sender Time</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -749,7 +783,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$7</c:f>
+              <c:f>Sheet1!$G$2:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1077,6 +1111,457 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>Total Sent messages vs. Average Sender Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>101.4835729</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140.57142859999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>181.54478979999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>221.71199999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>260.93561369999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>298.37675350000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0132-467F-9142-9E012DE3019E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="516167272"/>
+        <c:axId val="516167600"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="516167272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Average sender time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516167600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="516167600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="FF0000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>no of sent messages</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516167272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1118,6 +1603,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2189,17 +2714,533 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>1061085</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>36195</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>75486</xdr:rowOff>
@@ -2235,7 +3276,7 @@
       <xdr:rowOff>32498</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>763121</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>108698</xdr:rowOff>
@@ -2258,6 +3299,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1559219</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>78762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>651542</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>154962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1AD756A-508B-751F-315D-88FB8AA7082A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2563,163 +3640,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCDAC01-1072-42D6-A354-73A7D252276E}">
-  <dimension ref="A1:I3730"/>
+  <dimension ref="A1:J3730"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="1"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23" style="1" customWidth="1"/>
-    <col min="8" max="8" width="33.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" style="1" customWidth="1"/>
+    <col min="9" max="9" width="33.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>59</v>
       </c>
       <c r="B1" s="1">
         <v>100</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>82</v>
       </c>
       <c r="B2" s="1">
         <v>92</v>
       </c>
-      <c r="F2" s="3">
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5">
         <v>101.4835729</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="6">
+        <v>520</v>
+      </c>
+      <c r="H2" s="5">
         <v>468</v>
       </c>
-      <c r="H2" s="4">
-        <v>520</v>
-      </c>
-      <c r="I2" s="3">
+      <c r="I2" s="5">
+        <f>H2+G2</f>
+        <v>988</v>
+      </c>
+      <c r="J2" s="5">
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>120</v>
       </c>
       <c r="B3" s="1">
         <v>115</v>
       </c>
-      <c r="F3" s="3">
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5">
         <v>140.57142859999999</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="6">
+        <v>519</v>
+      </c>
+      <c r="H3" s="5">
         <v>190</v>
       </c>
-      <c r="H3" s="4">
-        <v>519</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="I3" s="5">
+        <f t="shared" ref="I2:I7" si="0">H3+G3</f>
+        <v>709</v>
+      </c>
+      <c r="J3" s="5">
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>62</v>
       </c>
       <c r="B4" s="1">
         <v>62</v>
       </c>
-      <c r="F4" s="3">
+      <c r="E4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="5">
         <v>181.54478979999999</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="6">
+        <v>520</v>
+      </c>
+      <c r="H4" s="5">
         <v>38</v>
       </c>
-      <c r="H4" s="4">
-        <v>520</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="I4" s="5">
+        <f t="shared" si="0"/>
+        <v>558</v>
+      </c>
+      <c r="J4" s="5">
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>80</v>
       </c>
       <c r="B5" s="1">
         <v>100</v>
       </c>
-      <c r="F5" s="3">
+      <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5">
         <v>221.71199999999999</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="6">
+        <v>500</v>
+      </c>
+      <c r="H5" s="5">
         <v>0</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="5">
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="5">
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>80</v>
       </c>
       <c r="B6" s="1">
         <v>138</v>
       </c>
-      <c r="F6" s="3">
+      <c r="E6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="5">
         <v>260.93561369999998</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="6">
+        <v>500</v>
+      </c>
+      <c r="H6" s="5">
         <v>0</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="5">
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="5">
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>66</v>
       </c>
       <c r="B7" s="1">
         <v>138</v>
       </c>
-      <c r="F7" s="3">
+      <c r="E7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="5">
         <v>298.37675350000001</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="6">
+        <v>501</v>
+      </c>
+      <c r="H7" s="5">
         <v>0</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="5">
+        <f t="shared" si="0"/>
         <v>501</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="5">
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>148</v>
       </c>
@@ -2727,12 +3855,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="H9" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I9" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>70</v>
       </c>
@@ -2740,7 +3868,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>87</v>
       </c>
@@ -2748,7 +3876,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>130</v>
       </c>
@@ -2756,7 +3884,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>141</v>
       </c>
@@ -2764,7 +3892,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>82</v>
       </c>
@@ -2772,7 +3900,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>93</v>
       </c>
@@ -2780,7 +3908,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>57</v>
       </c>
